--- a/retina训练记录.xlsx
+++ b/retina训练记录.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xu225\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xu225\Documents\local_respository\ZJZSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2E3674-2A32-4BD7-9E0B-7EF5AAAE4532}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868C458E-9880-4ED1-BF00-C40E34EF2FFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{E8BA7BC3-06D8-412B-A92F-873CFC4A0795}"/>
+    <workbookView xWindow="5310" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{E8BA7BC3-06D8-412B-A92F-873CFC4A0795}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,10 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（临时11epoch loss: 1.8034 - regression_loss: 1.3943 - classification_loss: 0.4091）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F82953-3944-4ED0-9A8B-77E1C1FBCB0B}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -783,6 +787,9 @@
       <c r="F6" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>

--- a/retina训练记录.xlsx
+++ b/retina训练记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xu225\Documents\local_respository\ZJZSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868C458E-9880-4ED1-BF00-C40E34EF2FFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DA15C5-CA34-4FF7-9594-954735FB928B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{E8BA7BC3-06D8-412B-A92F-873CFC4A0795}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{E8BA7BC3-06D8-412B-A92F-873CFC4A0795}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,7 +214,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（临时11epoch loss: 1.8034 - regression_loss: 1.3943 - classification_loss: 0.4091）</t>
+    <t>22.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss: 1.7472 - regression_loss: 1.3532 - classification_loss: 0.3939</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +605,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -788,10 +796,14 @@
         <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
